--- a/Database/test/website/DocemntosExecel/Planos.xlsx
+++ b/Database/test/website/DocemntosExecel/Planos.xlsx
@@ -5,38 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adalb\Documents\PECIProjeto\Gym-Home\Database\test\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Documentos\3ano1sem\PECI\Gym-Home\Database\test\website\DocemntosExecel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C966E649-9DEC-4875-94AE-DFE74ECA0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B72B6-2348-426B-8B22-E90A92833540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{10E74F8B-43B3-4BEA-9A9B-D50249E3A6AB}"/>
+    <workbookView xWindow="4680" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{10E74F8B-43B3-4BEA-9A9B-D50249E3A6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fisio. José Silva</t>
   </si>
@@ -44,19 +33,25 @@
     <t>Força</t>
   </si>
   <si>
-    <t>Ajuda os diferentes músculos do seu corpo\n para se tornar mais forte e mais poderoso</t>
-  </si>
-  <si>
     <t>Flexibilidade</t>
   </si>
   <si>
-    <t>Assim como os alongamentos, os exercícios de flexibilidade\n são técnicas utilizadas para aumentar a extensão do tecido conjuntivo muscular.</t>
-  </si>
-  <si>
     <t>Resistencia</t>
   </si>
   <si>
     <t>Quando fazemos exercícios, nossos músculos precisam de mais energia do que quando descansamos.</t>
+  </si>
+  <si>
+    <t>Ajuda os diferentes músculos do seu corpo para se tornar mais forte e mais poderoso</t>
+  </si>
+  <si>
+    <t>Assim como os alongamentos, os exercícios de flexibilidade são técnicas utilizadas para aumentar a extensão do tecido conjuntivo muscular.</t>
+  </si>
+  <si>
+    <t>Fisio. Pompeu Costa</t>
+  </si>
+  <si>
+    <t>Fisio. Tiago Alves</t>
   </si>
 </sst>
 </file>
@@ -417,49 +412,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379BC268-FEFD-429C-98B4-FB52EDBC7234}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
